--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,13 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Gm13306</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,72 +522,72 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.041225</v>
+        <v>0.5955496666666666</v>
       </c>
       <c r="H2">
-        <v>0.123675</v>
+        <v>1.786649</v>
       </c>
       <c r="I2">
-        <v>0.04646624533012825</v>
+        <v>0.5754499665999525</v>
       </c>
       <c r="J2">
-        <v>0.05129229203448434</v>
+        <v>0.6273319775338025</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.5706193333333334</v>
+        <v>0.1452775</v>
       </c>
       <c r="N2">
-        <v>1.711858</v>
+        <v>0.290555</v>
       </c>
       <c r="O2">
-        <v>0.2443278446591134</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.3265937887468804</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.02352378201666667</v>
+        <v>0.08651996669916666</v>
       </c>
       <c r="R2">
-        <v>0.21171403815</v>
+        <v>0.519119800195</v>
       </c>
       <c r="S2">
-        <v>0.01135299757091183</v>
+        <v>0.5754499665999525</v>
       </c>
       <c r="T2">
-        <v>0.01675174398905368</v>
+        <v>0.6273319775338025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -596,294 +599,170 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.041225</v>
+        <v>0.01512033333333333</v>
       </c>
       <c r="H3">
-        <v>0.123675</v>
+        <v>0.045361</v>
       </c>
       <c r="I3">
-        <v>0.04646624533012825</v>
+        <v>0.01461002465226267</v>
       </c>
       <c r="J3">
-        <v>0.05129229203448434</v>
+        <v>0.01592725030652961</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>1.7648465</v>
+        <v>0.1452775</v>
       </c>
       <c r="N3">
-        <v>3.529693</v>
+        <v>0.290555</v>
       </c>
       <c r="O3">
-        <v>0.7556721553408867</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.6734062112531195</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.07275579696249999</v>
+        <v>0.002196644225833333</v>
       </c>
       <c r="R3">
-        <v>0.436534781775</v>
+        <v>0.013179865355</v>
       </c>
       <c r="S3">
-        <v>0.03511324775921643</v>
+        <v>0.01461002465226267</v>
       </c>
       <c r="T3">
-        <v>0.03454054804543066</v>
+        <v>0.01592725030652961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5955496666666668</v>
+        <v>0.256774</v>
       </c>
       <c r="H4">
-        <v>1.786649</v>
+        <v>0.513548</v>
       </c>
       <c r="I4">
-        <v>0.6712663897540192</v>
+        <v>0.2481079211256428</v>
       </c>
       <c r="J4">
-        <v>0.7409850193743233</v>
+        <v>0.1803180604576105</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.5706193333333334</v>
+        <v>0.1452775</v>
       </c>
       <c r="N4">
-        <v>1.711858</v>
+        <v>0.290555</v>
       </c>
       <c r="O4">
-        <v>0.2443278446591134</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.3265937887468804</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.3398321537602223</v>
+        <v>0.037303484785</v>
       </c>
       <c r="R4">
-        <v>3.058489383842001</v>
+        <v>0.14921393914</v>
       </c>
       <c r="S4">
-        <v>0.1640090702007038</v>
+        <v>0.2481079211256428</v>
       </c>
       <c r="T4">
-        <v>0.2420011048821409</v>
+        <v>0.1803180604576105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.5955496666666668</v>
+        <v>0.1674846666666666</v>
       </c>
       <c r="H5">
-        <v>1.786649</v>
+        <v>0.502454</v>
       </c>
       <c r="I5">
-        <v>0.6712663897540192</v>
+        <v>0.1618320876221421</v>
       </c>
       <c r="J5">
-        <v>0.7409850193743233</v>
+        <v>0.1764227117020574</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.7648465</v>
+        <v>0.1452775</v>
       </c>
       <c r="N5">
-        <v>3.529693</v>
+        <v>0.290555</v>
       </c>
       <c r="O5">
-        <v>0.7556721553408867</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.6734062112531195</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.051053744792833</v>
+        <v>0.02433175366166666</v>
       </c>
       <c r="R5">
-        <v>6.306322468757</v>
+        <v>0.14599052197</v>
       </c>
       <c r="S5">
-        <v>0.5072573195533154</v>
+        <v>0.1618320876221421</v>
       </c>
       <c r="T5">
-        <v>0.4989839144921824</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.2504285</v>
-      </c>
-      <c r="H6">
-        <v>0.500857</v>
-      </c>
-      <c r="I6">
-        <v>0.2822673649158526</v>
-      </c>
-      <c r="J6">
-        <v>0.2077226885911924</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.5706193333333334</v>
-      </c>
-      <c r="N6">
-        <v>1.711858</v>
-      </c>
-      <c r="O6">
-        <v>0.2443278446591134</v>
-      </c>
-      <c r="P6">
-        <v>0.3265937887468804</v>
-      </c>
-      <c r="Q6">
-        <v>0.1428993437176667</v>
-      </c>
-      <c r="R6">
-        <v>0.8573960623060001</v>
-      </c>
-      <c r="S6">
-        <v>0.06896577688749771</v>
-      </c>
-      <c r="T6">
-        <v>0.06784093987568594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.2504285</v>
-      </c>
-      <c r="H7">
-        <v>0.500857</v>
-      </c>
-      <c r="I7">
-        <v>0.2822673649158526</v>
-      </c>
-      <c r="J7">
-        <v>0.2077226885911924</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.7648465</v>
-      </c>
-      <c r="N7">
-        <v>3.529693</v>
-      </c>
-      <c r="O7">
-        <v>0.7556721553408867</v>
-      </c>
-      <c r="P7">
-        <v>0.6734062112531195</v>
-      </c>
-      <c r="Q7">
-        <v>0.44196786172525</v>
-      </c>
-      <c r="R7">
-        <v>1.767871446901</v>
-      </c>
-      <c r="S7">
-        <v>0.2133015880283549</v>
-      </c>
-      <c r="T7">
-        <v>0.1398817487155065</v>
+        <v>0.1764227117020574</v>
       </c>
     </row>
   </sheetData>
